--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Stock Amount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Shelf Life</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Plant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>BSK</t>
         </is>
@@ -481,6 +486,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,16 +507,19 @@
           <t>267415A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>525</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -531,16 +540,19 @@
           <t>267415</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>495</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,16 +573,19 @@
           <t>264615</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,16 +606,19 @@
           <t>265678</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -621,16 +639,19 @@
           <t>255439</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1.6</v>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -651,16 +672,19 @@
           <t>260472A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>780</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -681,16 +705,19 @@
           <t>260472</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>240</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -711,16 +738,19 @@
           <t>254943</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1.6</v>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -741,16 +771,19 @@
           <t>254277</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.5</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -771,16 +804,19 @@
           <t>BA071837</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>2116</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -801,16 +837,19 @@
           <t>BA070137</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>646</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -831,16 +870,19 @@
           <t>BA072282</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>490</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -861,16 +903,19 @@
           <t>BA068872</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>2038</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -891,16 +936,19 @@
           <t>BA068212</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>2216</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -921,16 +969,19 @@
           <t>BA067049A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>1048</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -951,16 +1002,19 @@
           <t>BA067049</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>2040</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -981,16 +1035,19 @@
           <t>BA065737</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>2996</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>6.6</v>
       </c>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1011,16 +1068,19 @@
           <t>BA058362</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>7627</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>13.7</v>
       </c>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1041,16 +1101,19 @@
           <t>BA064208</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>6034</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>5.6</v>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1071,16 +1134,19 @@
           <t>BA057513</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>5512</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>13.7</v>
       </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1101,16 +1167,19 @@
           <t>BA056301</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>3153</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>15.7</v>
       </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1131,16 +1200,19 @@
           <t>BA057382</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="n">
+        <v>7520</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>13.7</v>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1161,16 +1233,19 @@
           <t>BA055981</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>3805</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>15.7</v>
       </c>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1191,16 +1266,19 @@
           <t>BA054608</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>23.9</v>
       </c>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1221,16 +1299,19 @@
           <t>BA054517</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="n">
+        <v>3734</v>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>23.9</v>
       </c>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1251,16 +1332,19 @@
           <t>BA054205</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="n">
+        <v>1841</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>(Timestamp('2020-01-31 00:00:00'), '2020-01-31')</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>27.9</v>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1281,20 +1365,23 @@
           <t>R-25565769</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>(datetime.datetime(2021, 9, 30, 0, 0), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>7.6</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
@@ -1319,16 +1406,19 @@
           <t>267268</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>6005</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1349,16 +1439,19 @@
           <t>264620B</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="n">
+        <v>2526</v>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1379,16 +1472,19 @@
           <t>264620C</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>6005</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1409,16 +1505,19 @@
           <t>263712B</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="n">
+        <v>610</v>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1439,16 +1538,19 @@
           <t>264620</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="n">
+        <v>4924</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1469,16 +1571,19 @@
           <t>264620A</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="n">
+        <v>1914</v>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1499,16 +1604,19 @@
           <t>263712A</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>6002</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1529,16 +1637,19 @@
           <t>263712</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="n">
+        <v>6006</v>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1559,16 +1670,19 @@
           <t>260467B</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="n">
+        <v>1109</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1589,16 +1703,19 @@
           <t>260468</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" t="n">
+        <v>3270</v>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1619,16 +1736,19 @@
           <t>258372A</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="n">
+        <v>6006</v>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1649,16 +1769,19 @@
           <t>260467A</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="n">
+        <v>5998</v>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1679,16 +1802,19 @@
           <t>260467</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="n">
+        <v>5995</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1709,16 +1835,19 @@
           <t>258372</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="n">
+        <v>3906</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1739,16 +1868,19 @@
           <t>260474</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1769,20 +1901,23 @@
           <t>0I841A</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="n">
+        <v>2534</v>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 8, 31, 0, 0), '2022-08-31')</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>-3.5</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
@@ -1807,16 +1942,19 @@
           <t>0J846B</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="n">
+        <v>3279</v>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1837,16 +1975,19 @@
           <t>0K848A</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="n">
+        <v>1841</v>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1867,16 +2008,19 @@
           <t>0J847A</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="n">
+        <v>1944</v>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1897,16 +2041,19 @@
           <t>0H838C</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="n">
+        <v>5249</v>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1927,16 +2074,19 @@
           <t>0G836BA</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="n">
+        <v>2320</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1957,16 +2107,19 @@
           <t>0G836B</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" t="n">
+        <v>5075</v>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1987,16 +2140,19 @@
           <t>0F835B</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="n">
+        <v>320</v>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2017,16 +2173,19 @@
           <t>0F832D</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="n">
+        <v>7604</v>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2047,16 +2206,19 @@
           <t>0F834C</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="n">
+        <v>7461</v>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2077,16 +2239,19 @@
           <t>0F831A</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2107,16 +2272,19 @@
           <t>9L824AA</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="n">
+        <v>4746</v>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>5.6</v>
       </c>
-      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2137,16 +2305,19 @@
           <t>9L824A</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="n">
+        <v>5360</v>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>5.6</v>
       </c>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2167,16 +2338,19 @@
           <t>9K819B</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" t="n">
+        <v>5229</v>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>6.6</v>
       </c>
-      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2197,16 +2371,19 @@
           <t>9J815A</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="n">
+        <v>6313</v>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>7.6</v>
       </c>
-      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2227,16 +2404,19 @@
           <t>9J811A</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" t="n">
+        <v>8917</v>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>7.6</v>
       </c>
-      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2257,16 +2437,19 @@
           <t>9I809E</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" t="n">
+        <v>154</v>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>8.6</v>
       </c>
-      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2287,16 +2470,19 @@
           <t>9J813B</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="n">
+        <v>4904</v>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>7.6</v>
       </c>
-      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2317,16 +2503,19 @@
           <t>9J816A</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" t="n">
+        <v>5346</v>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>7.6</v>
       </c>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2347,16 +2536,19 @@
           <t>9J811C</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" t="n">
+        <v>6960</v>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>7.6</v>
       </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2377,16 +2569,19 @@
           <t>P00472A</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" t="n">
+        <v>9939</v>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>12.7</v>
       </c>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2407,16 +2602,19 @@
           <t>P00470C</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" t="n">
+        <v>1389</v>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>13.7</v>
       </c>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2437,16 +2635,19 @@
           <t>P00472B</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" t="n">
+        <v>5172</v>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>12.7</v>
       </c>
-      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2467,16 +2668,19 @@
           <t>P00464A</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" t="n">
+        <v>6345</v>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>(Timestamp('2020-12-31 00:00:00'), '2020-12-31')</t>
         </is>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>16.7</v>
       </c>
-      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2497,16 +2701,19 @@
           <t>P00465B</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" t="n">
+        <v>4933</v>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>14.8</v>
       </c>
-      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2527,16 +2734,19 @@
           <t>P00465D</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" t="n">
+        <v>4498</v>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>14.8</v>
       </c>
-      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2557,16 +2767,19 @@
           <t>P00465C</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" t="n">
+        <v>7497</v>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>14.8</v>
       </c>
-      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2587,16 +2800,19 @@
           <t>P00457B</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" t="n">
+        <v>5632</v>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>17.8</v>
       </c>
-      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2617,16 +2833,19 @@
           <t>P00459C</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" t="n">
+        <v>10872</v>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>17.8</v>
       </c>
-      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2647,16 +2866,19 @@
           <t>P00457A</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" t="n">
+        <v>3747</v>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>17.8</v>
       </c>
-      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2677,16 +2899,19 @@
           <t>P00396E</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" t="n">
+        <v>1543</v>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>(Timestamp('2020-04-30 00:00:00'), '2020-04-30')</t>
         </is>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>24.9</v>
       </c>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2707,16 +2932,19 @@
           <t>P00407C</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" t="n">
+        <v>4138</v>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>23.9</v>
       </c>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2737,16 +2965,19 @@
           <t>P00413D</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" t="n">
+        <v>3089</v>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>23.9</v>
       </c>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2767,16 +2998,19 @@
           <t>P00428B</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" t="n">
+        <v>5360</v>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>(Timestamp('2020-07-31 00:00:00'), '2020-07-31')</t>
         </is>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>21.8</v>
       </c>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2797,16 +3031,19 @@
           <t>P00428BA</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>(Timestamp('2020-07-31 00:00:00'), '2020-07-31')</t>
         </is>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>21.8</v>
       </c>
-      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2827,16 +3064,19 @@
           <t>P00428BB</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" t="n">
+        <v>4960</v>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>(Timestamp('2020-07-31 00:00:00'), '2020-07-31')</t>
         </is>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>21.8</v>
       </c>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2857,16 +3097,19 @@
           <t>P00399BB</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" t="n">
+        <v>6958</v>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>(Timestamp('2020-04-30 00:00:00'), '2020-04-30')</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>24.9</v>
       </c>
-      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2887,16 +3130,19 @@
           <t>P00410A</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" t="n">
+        <v>5246</v>
+      </c>
+      <c r="F82" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>23.9</v>
       </c>
-      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2917,16 +3163,19 @@
           <t>N2000780</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" t="n">
+        <v>568</v>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2947,16 +3196,19 @@
           <t>N2000501</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" t="n">
+        <v>498</v>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>(Timestamp('2021-12-31 00:00:00'), '2021-12-31')</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>4.6</v>
       </c>
-      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2977,16 +3229,19 @@
           <t>N2000069</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" t="n">
+        <v>549</v>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>5.6</v>
       </c>
-      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3007,16 +3262,19 @@
           <t>N1900726</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" t="n">
+        <v>976</v>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>12.7</v>
       </c>
-      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3037,20 +3295,23 @@
           <t>N1900726</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>(datetime.datetime(2021, 4, 30, 0, 0), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>12.7</v>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
@@ -3075,16 +3336,19 @@
           <t>N2000069</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E88" t="n">
+        <v>669</v>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>5.6</v>
       </c>
-      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3105,16 +3369,19 @@
           <t>C19113</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" t="n">
+        <v>3398</v>
+      </c>
+      <c r="F89" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>2.6</v>
       </c>
-      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3135,16 +3402,19 @@
           <t>C19113A</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" t="n">
+        <v>2150</v>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>2.6</v>
       </c>
-      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3165,16 +3435,19 @@
           <t>C18147D</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" t="n">
+        <v>3666</v>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>6.6</v>
       </c>
-      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3195,16 +3468,19 @@
           <t>C18147C</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" t="n">
+        <v>493</v>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>6.6</v>
       </c>
-      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3225,16 +3501,19 @@
           <t>C18147B</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E93" t="n">
+        <v>756</v>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>6.6</v>
       </c>
-      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3255,16 +3534,19 @@
           <t>C18147A</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>6.6</v>
       </c>
-      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3285,16 +3567,19 @@
           <t>C18147</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F95" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>6.6</v>
       </c>
-      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3315,20 +3600,23 @@
           <t>C19104A</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" t="n">
+        <v>47</v>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 1, 31, 0, 0), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>3.5</v>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -3353,16 +3641,19 @@
           <t>C19104</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" t="n">
+        <v>585</v>
+      </c>
+      <c r="F97" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>3.5</v>
       </c>
-      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3383,16 +3674,19 @@
           <t>C18125B</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" t="n">
+        <v>77</v>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>11.7</v>
       </c>
-      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3413,16 +3707,19 @@
           <t>C18147B</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" t="n">
+        <v>430</v>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>6.6</v>
       </c>
-      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3443,16 +3740,19 @@
           <t>C18147A</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E100" t="n">
+        <v>234</v>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>6.6</v>
       </c>
-      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3473,16 +3773,19 @@
           <t>C18147</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E101" t="n">
+        <v>154</v>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>6.6</v>
       </c>
-      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3503,16 +3806,19 @@
           <t>C18125A</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" t="n">
+        <v>231</v>
+      </c>
+      <c r="F102" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>11.7</v>
       </c>
-      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3533,16 +3839,19 @@
           <t>BA068675</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" t="n">
+        <v>2624</v>
+      </c>
+      <c r="F103" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3563,16 +3872,19 @@
           <t>BA068329</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" t="n">
+        <v>7257</v>
+      </c>
+      <c r="F104" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3593,16 +3905,19 @@
           <t>BA066175</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" t="n">
+        <v>1818</v>
+      </c>
+      <c r="F105" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3623,16 +3938,19 @@
           <t>BA067144A</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" t="n">
+        <v>3978</v>
+      </c>
+      <c r="F106" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3653,16 +3971,19 @@
           <t>BA067144</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" t="n">
+        <v>6349</v>
+      </c>
+      <c r="F107" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3683,16 +4004,19 @@
           <t>BA065289</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" t="n">
+        <v>4534</v>
+      </c>
+      <c r="F108" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>0.6</v>
       </c>
-      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3713,16 +4037,19 @@
           <t>BA065657</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" t="n">
+        <v>4862</v>
+      </c>
+      <c r="F109" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3743,16 +4070,19 @@
           <t>BA064334A</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F110" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>1.6</v>
       </c>
-      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3773,16 +4103,19 @@
           <t>BA064778</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F111" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.6</v>
       </c>
-      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3803,16 +4136,19 @@
           <t>BA064334</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" t="n">
+        <v>10497</v>
+      </c>
+      <c r="F112" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>1.6</v>
       </c>
-      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3833,16 +4169,19 @@
           <t>BA064047</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E113" t="n">
+        <v>4844</v>
+      </c>
+      <c r="F113" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>2.6</v>
       </c>
-      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3863,16 +4202,19 @@
           <t>BA063342</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" t="n">
+        <v>3765</v>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>5.6</v>
       </c>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3893,16 +4235,19 @@
           <t>BA062528</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" t="n">
+        <v>3022</v>
+      </c>
+      <c r="F115" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>5.6</v>
       </c>
-      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3923,16 +4268,19 @@
           <t>BA062753</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" t="n">
+        <v>3561</v>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>5.6</v>
       </c>
-      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3953,16 +4301,19 @@
           <t>BA060692</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" t="n">
+        <v>5656</v>
+      </c>
+      <c r="F117" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>7.6</v>
       </c>
-      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3983,16 +4334,19 @@
           <t>BA060271</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" t="n">
+        <v>1111</v>
+      </c>
+      <c r="F118" t="inlineStr">
         <is>
           <t>(Timestamp('2021-07-31 00:00:00'), '2021-07-31')</t>
         </is>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4013,16 +4367,19 @@
           <t>BA060579</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" t="n">
+        <v>5168</v>
+      </c>
+      <c r="F119" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>8.6</v>
       </c>
-      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4043,16 +4400,19 @@
           <t>BA060580</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" t="n">
+        <v>10388</v>
+      </c>
+      <c r="F120" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>7.6</v>
       </c>
-      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4073,16 +4433,19 @@
           <t>BA060218</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E121" t="n">
+        <v>12953</v>
+      </c>
+      <c r="F121" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>8.6</v>
       </c>
-      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4103,16 +4466,19 @@
           <t>BA058666</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E122" t="n">
+        <v>2401</v>
+      </c>
+      <c r="F122" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>11.7</v>
       </c>
-      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4133,16 +4499,19 @@
           <t>BA058518</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E123" t="n">
+        <v>8549</v>
+      </c>
+      <c r="F123" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>11.7</v>
       </c>
-      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4163,16 +4532,19 @@
           <t>BA058289</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" t="n">
+        <v>9574</v>
+      </c>
+      <c r="F124" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>11.7</v>
       </c>
-      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4193,16 +4565,19 @@
           <t>BA057512</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" t="n">
+        <v>4725</v>
+      </c>
+      <c r="F125" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>14.8</v>
       </c>
-      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4223,16 +4598,19 @@
           <t>BA057512A</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E126" t="n">
+        <v>1089</v>
+      </c>
+      <c r="F126" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>14.8</v>
       </c>
-      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4253,16 +4631,19 @@
           <t>BA056995</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" t="n">
+        <v>8578</v>
+      </c>
+      <c r="F127" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>14.8</v>
       </c>
-      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4283,16 +4664,19 @@
           <t>BA056394</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" t="n">
+        <v>3601</v>
+      </c>
+      <c r="F128" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>15.7</v>
       </c>
-      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4313,16 +4697,19 @@
           <t>BA056009</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E129" t="n">
+        <v>8253</v>
+      </c>
+      <c r="F129" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>15.7</v>
       </c>
-      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4343,16 +4730,19 @@
           <t>BA055126</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E130" t="n">
+        <v>2457</v>
+      </c>
+      <c r="F130" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>17.8</v>
       </c>
-      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4373,16 +4763,19 @@
           <t>BA055124</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F131" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>17.8</v>
       </c>
-      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4403,16 +4796,19 @@
           <t>BA055243</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" t="n">
+        <v>5425</v>
+      </c>
+      <c r="F132" t="inlineStr">
         <is>
           <t>(Timestamp('2020-12-31 00:00:00'), '2020-12-31')</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>16.7</v>
       </c>
-      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4433,16 +4829,19 @@
           <t>BA054490A</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" t="n">
+        <v>2557</v>
+      </c>
+      <c r="F133" t="inlineStr">
         <is>
           <t>(Timestamp('2020-10-31 00:00:00'), '2020-10-31')</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>18.8</v>
       </c>
-      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4463,16 +4862,19 @@
           <t>BA054280</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E134" t="n">
+        <v>1823</v>
+      </c>
+      <c r="F134" t="inlineStr">
         <is>
           <t>(Timestamp('2020-10-31 00:00:00'), '2020-10-31')</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>18.8</v>
       </c>
-      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4493,16 +4895,19 @@
           <t>BA054490</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E135" t="n">
+        <v>10836</v>
+      </c>
+      <c r="F135" t="inlineStr">
         <is>
           <t>(Timestamp('2020-10-31 00:00:00'), '2020-10-31')</t>
         </is>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>18.8</v>
       </c>
-      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4523,16 +4928,19 @@
           <t>BA053952</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E136" t="n">
+        <v>10463</v>
+      </c>
+      <c r="F136" t="inlineStr">
         <is>
           <t>(Timestamp('2020-10-31 00:00:00'), '2020-10-31')</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>18.8</v>
       </c>
-      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4553,16 +4961,19 @@
           <t>BA053238</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E137" t="n">
+        <v>6597</v>
+      </c>
+      <c r="F137" t="inlineStr">
         <is>
           <t>(Timestamp('2020-09-30 00:00:00'), '2020-09-30')</t>
         </is>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>19.8</v>
       </c>
-      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4583,16 +4994,19 @@
           <t>BA053288</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" t="n">
+        <v>5520</v>
+      </c>
+      <c r="F138" t="inlineStr">
         <is>
           <t>(Timestamp('2020-09-30 00:00:00'), '2020-09-30')</t>
         </is>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>19.8</v>
       </c>
-      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4613,20 +5027,23 @@
           <t>BA070671</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" t="n">
+        <v>721</v>
+      </c>
+      <c r="F139" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 10, 31, 0, 0), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -4651,16 +5068,19 @@
           <t>BA069245</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E140" t="n">
+        <v>510</v>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4681,16 +5101,19 @@
           <t>BA067909</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E141" t="n">
+        <v>1224</v>
+      </c>
+      <c r="F141" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4711,16 +5134,19 @@
           <t>BA067284A</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E142" t="n">
+        <v>816</v>
+      </c>
+      <c r="F142" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4741,16 +5167,19 @@
           <t>BA067284</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E143" t="n">
+        <v>1564</v>
+      </c>
+      <c r="F143" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4771,16 +5200,19 @@
           <t>BA066885</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E144" t="n">
+        <v>1258</v>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>0.6</v>
       </c>
-      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4801,16 +5233,19 @@
           <t>BA063191</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" t="n">
+        <v>2297</v>
+      </c>
+      <c r="F145" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>7.6</v>
       </c>
-      <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4831,16 +5266,19 @@
           <t>BA062427</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" t="n">
+        <v>3455</v>
+      </c>
+      <c r="F146" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>7.6</v>
       </c>
-      <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4861,16 +5299,19 @@
           <t>BA058657</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E147" t="n">
+        <v>2720</v>
+      </c>
+      <c r="F147" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>12.7</v>
       </c>
-      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4891,16 +5332,19 @@
           <t>BA055640</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E148" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F148" t="inlineStr">
         <is>
           <t>(Timestamp('2020-10-31 00:00:00'), '2020-10-31')</t>
         </is>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>18.8</v>
       </c>
-      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4921,16 +5365,19 @@
           <t>BA053690</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" t="n">
+        <v>2797</v>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>20.8</v>
       </c>
-      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4951,16 +5398,19 @@
           <t>BA052716</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E150" t="n">
+        <v>1813</v>
+      </c>
+      <c r="F150" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>20.8</v>
       </c>
-      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4981,16 +5431,19 @@
           <t>BA052080</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F151" t="inlineStr">
         <is>
           <t>(Timestamp('2020-06-30 00:00:00'), '2020-06-30')</t>
         </is>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>22.9</v>
       </c>
-      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5011,16 +5464,19 @@
           <t>BA051801B</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" t="n">
+        <v>1352</v>
+      </c>
+      <c r="F152" t="inlineStr">
         <is>
           <t>(Timestamp('2020-06-30 00:00:00'), '2020-06-30')</t>
         </is>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>22.9</v>
       </c>
-      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5041,16 +5497,19 @@
           <t>BA069674</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" t="n">
+        <v>4686</v>
+      </c>
+      <c r="F153" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5071,16 +5530,19 @@
           <t>BA067562</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" t="n">
+        <v>4012</v>
+      </c>
+      <c r="F154" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5101,16 +5563,19 @@
           <t>BA067713</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" t="n">
+        <v>3136</v>
+      </c>
+      <c r="F155" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>2.6</v>
       </c>
-      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5131,16 +5596,19 @@
           <t>BA067247</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E156" t="n">
+        <v>4248</v>
+      </c>
+      <c r="F156" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>2.6</v>
       </c>
-      <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5161,16 +5629,19 @@
           <t>BA063263</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E157" t="n">
+        <v>1355</v>
+      </c>
+      <c r="F157" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>6.6</v>
       </c>
-      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5191,16 +5662,19 @@
           <t>BA063118</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F158" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>6.6</v>
       </c>
-      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5221,16 +5695,19 @@
           <t>BA062391</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E159" t="n">
+        <v>3264</v>
+      </c>
+      <c r="F159" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>7.6</v>
       </c>
-      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5251,16 +5728,19 @@
           <t>BA063115</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E160" t="n">
+        <v>3504</v>
+      </c>
+      <c r="F160" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>7.6</v>
       </c>
-      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5281,16 +5761,19 @@
           <t>BA061115A</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E161" t="n">
+        <v>92</v>
+      </c>
+      <c r="F161" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>11.7</v>
       </c>
-      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5311,16 +5794,19 @@
           <t>BA060534</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E162" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F162" t="inlineStr">
         <is>
           <t>(Timestamp('2021-07-31 00:00:00'), '2021-07-31')</t>
         </is>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5341,16 +5827,19 @@
           <t>BA061117</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F163" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>8.6</v>
       </c>
-      <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5371,16 +5860,19 @@
           <t>BA061632</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E164" t="n">
+        <v>2298</v>
+      </c>
+      <c r="F164" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>8.6</v>
       </c>
-      <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5401,16 +5893,19 @@
           <t>BA061115</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E165" t="n">
+        <v>6256</v>
+      </c>
+      <c r="F165" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>11.7</v>
       </c>
-      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5431,16 +5926,19 @@
           <t>BA058642A</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E166" t="n">
+        <v>4097</v>
+      </c>
+      <c r="F166" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>12.7</v>
       </c>
-      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5461,16 +5959,19 @@
           <t>BA058392</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E167" t="n">
+        <v>481</v>
+      </c>
+      <c r="F167" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>13.7</v>
       </c>
-      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5491,16 +5992,19 @@
           <t>BA058642</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E168" t="n">
+        <v>2448</v>
+      </c>
+      <c r="F168" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>12.7</v>
       </c>
-      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5521,16 +6025,19 @@
           <t>BA055754</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" t="n">
+        <v>6669</v>
+      </c>
+      <c r="F169" t="inlineStr">
         <is>
           <t>(Timestamp('2020-09-30 00:00:00'), '2020-09-30')</t>
         </is>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>19.8</v>
       </c>
-      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5551,16 +6058,19 @@
           <t>BA054932</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E170" t="n">
+        <v>3962</v>
+      </c>
+      <c r="F170" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>20.8</v>
       </c>
-      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5581,16 +6091,19 @@
           <t>BA053511A</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E171" t="n">
+        <v>2844</v>
+      </c>
+      <c r="F171" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>20.8</v>
       </c>
-      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5611,16 +6124,19 @@
           <t>BA052095</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E172" t="n">
+        <v>3060</v>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>23.9</v>
       </c>
-      <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5641,16 +6157,19 @@
           <t>BA053511</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="E173" t="n">
+        <v>6562</v>
+      </c>
+      <c r="F173" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>20.8</v>
       </c>
-      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -5671,16 +6190,19 @@
           <t>BA052742</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E174" t="n">
+        <v>2992</v>
+      </c>
+      <c r="F174" t="inlineStr">
         <is>
           <t>(Timestamp('2020-07-31 00:00:00'), '2020-07-31')</t>
         </is>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>21.8</v>
       </c>
-      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -5701,16 +6223,19 @@
           <t>BA052095A</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" t="n">
+        <v>3774</v>
+      </c>
+      <c r="F175" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>23.9</v>
       </c>
-      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5731,16 +6256,19 @@
           <t>BA052095B</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F176" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>23.9</v>
       </c>
-      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5761,16 +6289,19 @@
           <t>BA052742A</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E177" t="n">
+        <v>318</v>
+      </c>
+      <c r="F177" t="inlineStr">
         <is>
           <t>(Timestamp('2020-07-31 00:00:00'), '2020-07-31')</t>
         </is>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>21.8</v>
       </c>
-      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5791,20 +6322,23 @@
           <t>BA070979B</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E178" t="n">
+        <v>710</v>
+      </c>
+      <c r="F178" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 10, 31, 0, 0), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="I178" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
@@ -5829,20 +6363,23 @@
           <t>BA070979A</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E179" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F179" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 10, 31, 0, 0), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
@@ -5867,20 +6404,23 @@
           <t>BA070979</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F180" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 10, 31, 0, 0), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
@@ -5905,20 +6445,23 @@
           <t>BA070088</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E181" t="n">
+        <v>114</v>
+      </c>
+      <c r="F181" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 10, 31, 0, 0), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="I181" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -5943,20 +6486,23 @@
           <t>BA051128</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E182" t="n">
+        <v>79</v>
+      </c>
+      <c r="F182" t="inlineStr">
         <is>
           <t>(datetime.datetime(2020, 5, 31, 0, 0), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>23.9</v>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="I182" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
@@ -5981,20 +6527,23 @@
           <t>BA050522</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E183" t="n">
+        <v>2</v>
+      </c>
+      <c r="F183" t="inlineStr">
         <is>
           <t>(datetime.datetime(2020, 4, 30, 0, 0), '2020-04-30')</t>
         </is>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>24.9</v>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="I183" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
@@ -6019,16 +6568,19 @@
           <t>BA069197A</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E184" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F184" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6049,16 +6601,19 @@
           <t>BA069197</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E185" t="n">
+        <v>2221</v>
+      </c>
+      <c r="F185" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6079,16 +6634,19 @@
           <t>BA068239A</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F186" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6109,16 +6667,19 @@
           <t>BA068239</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E187" t="n">
+        <v>1864</v>
+      </c>
+      <c r="F187" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6139,16 +6700,19 @@
           <t>BA067993</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E188" t="n">
+        <v>3291</v>
+      </c>
+      <c r="F188" t="inlineStr">
         <is>
           <t>(Timestamp('2022-08-31 00:00:00'), '2022-08-31')</t>
         </is>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>-3.5</v>
       </c>
-      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6169,16 +6733,19 @@
           <t>BA065990</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E189" t="n">
+        <v>3126</v>
+      </c>
+      <c r="F189" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.6</v>
       </c>
-      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6199,16 +6766,19 @@
           <t>BA064846</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" t="n">
+        <v>2424</v>
+      </c>
+      <c r="F190" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.6</v>
       </c>
-      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6229,16 +6799,19 @@
           <t>BA064401</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E191" t="n">
+        <v>2131</v>
+      </c>
+      <c r="F191" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>2.6</v>
       </c>
-      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6259,16 +6832,19 @@
           <t>BA063783B</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E192" t="n">
+        <v>2936</v>
+      </c>
+      <c r="F192" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>2.6</v>
       </c>
-      <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6289,16 +6865,19 @@
           <t>BA063301</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" t="n">
+        <v>611</v>
+      </c>
+      <c r="F193" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>3.5</v>
       </c>
-      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6319,16 +6898,19 @@
           <t>BA063783A</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="E194" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F194" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>2.6</v>
       </c>
-      <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6349,16 +6931,19 @@
           <t>BA063783</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="E195" t="n">
+        <v>2626</v>
+      </c>
+      <c r="F195" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>2.6</v>
       </c>
-      <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6379,16 +6964,19 @@
           <t>BA061807</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="E196" t="n">
+        <v>2424</v>
+      </c>
+      <c r="F196" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>6.6</v>
       </c>
-      <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6409,16 +6997,19 @@
           <t>BA061621A</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" t="n">
+        <v>2222</v>
+      </c>
+      <c r="F197" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>6.6</v>
       </c>
-      <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6439,16 +7030,19 @@
           <t>BA061621</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F198" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>6.6</v>
       </c>
-      <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6469,16 +7063,19 @@
           <t>BA060092</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" t="n">
+        <v>1489</v>
+      </c>
+      <c r="F199" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>8.6</v>
       </c>
-      <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6499,16 +7096,19 @@
           <t>BA060724</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E200" t="n">
+        <v>1541</v>
+      </c>
+      <c r="F200" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>8.6</v>
       </c>
-      <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -6529,16 +7129,19 @@
           <t>BA059919</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E201" t="n">
+        <v>3694</v>
+      </c>
+      <c r="F201" t="inlineStr">
         <is>
           <t>(Timestamp('2021-06-30 00:00:00'), '2021-06-30')</t>
         </is>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>10.7</v>
       </c>
-      <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -6559,16 +7162,19 @@
           <t>BA058139</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E202" t="n">
+        <v>2424</v>
+      </c>
+      <c r="F202" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F202" t="n">
+      <c r="G202" t="n">
         <v>11.7</v>
       </c>
-      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6589,16 +7195,19 @@
           <t>BA058139A</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E203" t="n">
+        <v>1128</v>
+      </c>
+      <c r="F203" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F203" t="n">
+      <c r="G203" t="n">
         <v>11.7</v>
       </c>
-      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6619,16 +7228,19 @@
           <t>BA057625</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" t="n">
+        <v>1517</v>
+      </c>
+      <c r="F204" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>13.7</v>
       </c>
-      <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6649,16 +7261,19 @@
           <t>BA057326</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E205" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F205" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F205" t="n">
+      <c r="G205" t="n">
         <v>13.7</v>
       </c>
-      <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6679,16 +7294,19 @@
           <t>BA056641</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E206" t="n">
+        <v>2772</v>
+      </c>
+      <c r="F206" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-30 00:00:00'), '2021-01-30')</t>
         </is>
       </c>
-      <c r="F206" t="n">
+      <c r="G206" t="n">
         <v>15.7</v>
       </c>
-      <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6709,16 +7327,19 @@
           <t>BA056256</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="E207" t="n">
+        <v>1989</v>
+      </c>
+      <c r="F207" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-30 00:00:00'), '2021-01-30')</t>
         </is>
       </c>
-      <c r="F207" t="n">
+      <c r="G207" t="n">
         <v>15.7</v>
       </c>
-      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6739,16 +7360,19 @@
           <t>BA054944</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E208" t="n">
+        <v>2794</v>
+      </c>
+      <c r="F208" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F208" t="n">
+      <c r="G208" t="n">
         <v>17.8</v>
       </c>
-      <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6769,16 +7393,19 @@
           <t>BA054075</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E209" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F209" t="inlineStr">
         <is>
           <t>(Timestamp('2020-10-31 00:00:00'), '2020-10-31')</t>
         </is>
       </c>
-      <c r="F209" t="n">
+      <c r="G209" t="n">
         <v>18.8</v>
       </c>
-      <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6799,16 +7426,19 @@
           <t>BA053290</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E210" t="n">
+        <v>1759</v>
+      </c>
+      <c r="F210" t="inlineStr">
         <is>
           <t>(Timestamp('2020-09-30 00:00:00'), '2020-09-30')</t>
         </is>
       </c>
-      <c r="F210" t="n">
+      <c r="G210" t="n">
         <v>19.8</v>
       </c>
-      <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6829,16 +7459,19 @@
           <t>BA052361</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="E211" t="n">
+        <v>1230</v>
+      </c>
+      <c r="F211" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F211" t="n">
+      <c r="G211" t="n">
         <v>20.8</v>
       </c>
-      <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6859,16 +7492,19 @@
           <t>BA051128B</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" t="n">
+        <v>2151</v>
+      </c>
+      <c r="F212" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F212" t="n">
+      <c r="G212" t="n">
         <v>23.9</v>
       </c>
-      <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -6889,20 +7525,23 @@
           <t>BA071080A</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E213" t="n">
+        <v>58</v>
+      </c>
+      <c r="F213" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 10, 31, 0, 0), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F213" t="n">
+      <c r="G213" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="I213" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -6927,16 +7566,19 @@
           <t>BA071080</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="E214" t="n">
+        <v>6494</v>
+      </c>
+      <c r="F214" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F214" t="n">
+      <c r="G214" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6957,16 +7599,19 @@
           <t>BA070132</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="E215" t="n">
+        <v>5047</v>
+      </c>
+      <c r="F215" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F215" t="n">
+      <c r="G215" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -6987,16 +7632,19 @@
           <t>BA069682</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="E216" t="n">
+        <v>10049</v>
+      </c>
+      <c r="F216" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F216" t="n">
+      <c r="G216" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7017,16 +7665,19 @@
           <t>BA067962A</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E217" t="n">
+        <v>2271</v>
+      </c>
+      <c r="F217" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F217" t="n">
+      <c r="G217" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7047,16 +7698,19 @@
           <t>BA068462A</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F218" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F218" t="n">
+      <c r="G218" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7077,16 +7731,19 @@
           <t>BA068462</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E219" t="n">
+        <v>3806</v>
+      </c>
+      <c r="F219" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F219" t="n">
+      <c r="G219" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7107,16 +7764,19 @@
           <t>BA067962</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" t="n">
+        <v>4228</v>
+      </c>
+      <c r="F220" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F220" t="n">
+      <c r="G220" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7137,16 +7797,19 @@
           <t>BA067563</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" t="n">
+        <v>8044</v>
+      </c>
+      <c r="F221" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F221" t="n">
+      <c r="G221" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7167,16 +7830,19 @@
           <t>BA067156A</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E222" t="n">
+        <v>5053</v>
+      </c>
+      <c r="F222" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F222" t="n">
+      <c r="G222" t="n">
         <v>2.6</v>
       </c>
-      <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7197,16 +7863,19 @@
           <t>BA067156</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E223" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F223" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F223" t="n">
+      <c r="G223" t="n">
         <v>2.6</v>
       </c>
-      <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7227,16 +7896,19 @@
           <t>BA066968C</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E224" t="n">
+        <v>4653</v>
+      </c>
+      <c r="F224" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F224" t="n">
+      <c r="G224" t="n">
         <v>3.5</v>
       </c>
-      <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7257,16 +7929,19 @@
           <t>BA066968A</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F225" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F225" t="n">
+      <c r="G225" t="n">
         <v>3.5</v>
       </c>
-      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7287,16 +7962,19 @@
           <t>BA066968</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E226" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F226" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F226" t="n">
+      <c r="G226" t="n">
         <v>3.5</v>
       </c>
-      <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7317,16 +7995,19 @@
           <t>BA066127</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E227" t="n">
+        <v>3782</v>
+      </c>
+      <c r="F227" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-03 00:00:00'), '2022-06-03')</t>
         </is>
       </c>
-      <c r="F227" t="n">
+      <c r="G227" t="n">
         <v>-0.6</v>
       </c>
-      <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7347,16 +8028,19 @@
           <t>BA064855</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="E228" t="n">
+        <v>6358</v>
+      </c>
+      <c r="F228" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F228" t="n">
+      <c r="G228" t="n">
         <v>3.5</v>
       </c>
-      <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7377,16 +8061,19 @@
           <t>BA064855A</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
+      <c r="E229" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F229" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F229" t="n">
+      <c r="G229" t="n">
         <v>3.5</v>
       </c>
-      <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7407,16 +8094,19 @@
           <t>BA062603B</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E230" t="n">
+        <v>3073</v>
+      </c>
+      <c r="F230" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F230" t="n">
+      <c r="G230" t="n">
         <v>5.6</v>
       </c>
-      <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -7437,16 +8127,19 @@
           <t>BA062603A</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E231" t="n">
+        <v>3060</v>
+      </c>
+      <c r="F231" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F231" t="n">
+      <c r="G231" t="n">
         <v>5.6</v>
       </c>
-      <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -7467,16 +8160,19 @@
           <t>BA062603</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E232" t="n">
+        <v>9792</v>
+      </c>
+      <c r="F232" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F232" t="n">
+      <c r="G232" t="n">
         <v>5.6</v>
       </c>
-      <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -7497,16 +8193,19 @@
           <t>BA062144A</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" t="n">
+        <v>4347</v>
+      </c>
+      <c r="F233" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F233" t="n">
+      <c r="G233" t="n">
         <v>6.6</v>
       </c>
-      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -7527,16 +8226,19 @@
           <t>BA060656A</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" t="n">
+        <v>2031</v>
+      </c>
+      <c r="F234" t="inlineStr">
         <is>
           <t>(Timestamp('2021-06-30 00:00:00'), '2021-06-30')</t>
         </is>
       </c>
-      <c r="F234" t="n">
+      <c r="G234" t="n">
         <v>10.7</v>
       </c>
-      <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -7557,16 +8259,19 @@
           <t>BA062144</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E235" t="n">
+        <v>3128</v>
+      </c>
+      <c r="F235" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F235" t="n">
+      <c r="G235" t="n">
         <v>6.6</v>
       </c>
-      <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -7587,16 +8292,19 @@
           <t>BA060485</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" t="n">
+        <v>8500</v>
+      </c>
+      <c r="F236" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F236" t="n">
+      <c r="G236" t="n">
         <v>14.8</v>
       </c>
-      <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -7617,16 +8325,19 @@
           <t>BA060485A</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" t="n">
+        <v>1226</v>
+      </c>
+      <c r="F237" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F237" t="n">
+      <c r="G237" t="n">
         <v>14.8</v>
       </c>
-      <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -7647,16 +8358,19 @@
           <t>BA060656</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E238" t="n">
+        <v>7546</v>
+      </c>
+      <c r="F238" t="inlineStr">
         <is>
           <t>(Timestamp('2021-06-30 00:00:00'), '2021-06-30')</t>
         </is>
       </c>
-      <c r="F238" t="n">
+      <c r="G238" t="n">
         <v>10.7</v>
       </c>
-      <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -7677,16 +8391,19 @@
           <t>BA056468B</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E239" t="n">
+        <v>487</v>
+      </c>
+      <c r="F239" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F239" t="n">
+      <c r="G239" t="n">
         <v>15.7</v>
       </c>
-      <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -7707,16 +8424,19 @@
           <t>BA058108</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E240" t="n">
+        <v>5230</v>
+      </c>
+      <c r="F240" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F240" t="n">
+      <c r="G240" t="n">
         <v>14.8</v>
       </c>
-      <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -7737,16 +8457,19 @@
           <t>BA056468A</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E241" t="n">
+        <v>1768</v>
+      </c>
+      <c r="F241" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F241" t="n">
+      <c r="G241" t="n">
         <v>15.7</v>
       </c>
-      <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -7767,16 +8490,19 @@
           <t>BA056468</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E242" t="n">
+        <v>6255</v>
+      </c>
+      <c r="F242" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F242" t="n">
+      <c r="G242" t="n">
         <v>15.7</v>
       </c>
-      <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -7797,16 +8523,19 @@
           <t>BA056521</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E243" t="n">
+        <v>1696</v>
+      </c>
+      <c r="F243" t="inlineStr">
         <is>
           <t>(Timestamp('2020-12-31 00:00:00'), '2020-12-31')</t>
         </is>
       </c>
-      <c r="F243" t="n">
+      <c r="G243" t="n">
         <v>16.7</v>
       </c>
-      <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7827,16 +8556,19 @@
           <t>BA056294B</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E244" t="n">
+        <v>510</v>
+      </c>
+      <c r="F244" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F244" t="n">
+      <c r="G244" t="n">
         <v>15.7</v>
       </c>
-      <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7857,16 +8589,19 @@
           <t>BA055780A</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E245" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F245" t="inlineStr">
         <is>
           <t>(Timestamp('2020-12-31 00:00:00'), '2020-12-31')</t>
         </is>
       </c>
-      <c r="F245" t="n">
+      <c r="G245" t="n">
         <v>16.7</v>
       </c>
-      <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -7887,16 +8622,19 @@
           <t>BA056294</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E246" t="n">
+        <v>7752</v>
+      </c>
+      <c r="F246" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F246" t="n">
+      <c r="G246" t="n">
         <v>15.7</v>
       </c>
-      <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -7917,16 +8655,19 @@
           <t>BA056294A</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E247" t="n">
+        <v>1805</v>
+      </c>
+      <c r="F247" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F247" t="n">
+      <c r="G247" t="n">
         <v>15.7</v>
       </c>
-      <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -7947,16 +8688,19 @@
           <t>BA055780</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F248" t="inlineStr">
         <is>
           <t>(Timestamp('2020-12-31 00:00:00'), '2020-12-31')</t>
         </is>
       </c>
-      <c r="F248" t="n">
+      <c r="G248" t="n">
         <v>16.7</v>
       </c>
-      <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -7977,16 +8721,19 @@
           <t>BA054596</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E249" t="n">
+        <v>7167</v>
+      </c>
+      <c r="F249" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F249" t="n">
+      <c r="G249" t="n">
         <v>23.9</v>
       </c>
-      <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8007,16 +8754,19 @@
           <t>BA054281</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E250" t="n">
+        <v>5008</v>
+      </c>
+      <c r="F250" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F250" t="n">
+      <c r="G250" t="n">
         <v>23.9</v>
       </c>
-      <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8037,16 +8787,19 @@
           <t>BA054204</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
+      <c r="E251" t="n">
+        <v>5650</v>
+      </c>
+      <c r="F251" t="inlineStr">
         <is>
           <t>(Timestamp('2020-01-31 00:00:00'), '2020-01-31')</t>
         </is>
       </c>
-      <c r="F251" t="n">
+      <c r="G251" t="n">
         <v>27.9</v>
       </c>
-      <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8067,16 +8820,19 @@
           <t>BA068903</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="E252" t="n">
+        <v>6</v>
+      </c>
+      <c r="F252" t="inlineStr">
         <is>
           <t>(Timestamp('2022-08-31 00:00:00'), '2022-08-31')</t>
         </is>
       </c>
-      <c r="F252" t="n">
+      <c r="G252" t="n">
         <v>-3.5</v>
       </c>
-      <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8097,16 +8853,19 @@
           <t>BA066699</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
+      <c r="E253" t="n">
+        <v>7</v>
+      </c>
+      <c r="F253" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F253" t="n">
+      <c r="G253" t="n">
         <v>1.6</v>
       </c>
-      <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8127,16 +8886,19 @@
           <t>BA064204</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="E254" t="n">
+        <v>6</v>
+      </c>
+      <c r="F254" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F254" t="n">
+      <c r="G254" t="n">
         <v>1.6</v>
       </c>
-      <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8157,16 +8919,19 @@
           <t>BA061497</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E255" t="n">
+        <v>6</v>
+      </c>
+      <c r="F255" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F255" t="n">
+      <c r="G255" t="n">
         <v>7.6</v>
       </c>
-      <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8187,16 +8952,19 @@
           <t>BA059513</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="E256" t="n">
+        <v>4</v>
+      </c>
+      <c r="F256" t="inlineStr">
         <is>
           <t>(Timestamp('2021-06-30 00:00:00'), '2021-06-30')</t>
         </is>
       </c>
-      <c r="F256" t="n">
+      <c r="G256" t="n">
         <v>10.7</v>
       </c>
-      <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8217,16 +8985,19 @@
           <t>BA051368</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" t="n">
+        <v>6</v>
+      </c>
+      <c r="F257" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F257" t="n">
+      <c r="G257" t="n">
         <v>23.9</v>
       </c>
-      <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8247,16 +9018,19 @@
           <t>BA069737</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" t="n">
+        <v>2516</v>
+      </c>
+      <c r="F258" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F258" t="n">
+      <c r="G258" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8277,16 +9051,19 @@
           <t>BA067976A</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E259" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F259" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F259" t="n">
+      <c r="G259" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8307,16 +9084,19 @@
           <t>BA067976</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
+      <c r="E260" t="n">
+        <v>2286</v>
+      </c>
+      <c r="F260" t="inlineStr">
         <is>
           <t>(Timestamp('2022-07-31 00:00:00'), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F260" t="n">
+      <c r="G260" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8337,16 +9117,19 @@
           <t>BA069036</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
+      <c r="E261" t="n">
+        <v>633</v>
+      </c>
+      <c r="F261" t="inlineStr">
         <is>
           <t>(Timestamp('2022-09-30 00:00:00'), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F261" t="n">
+      <c r="G261" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -8367,16 +9150,19 @@
           <t>BA067124A</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" t="n">
+        <v>1232</v>
+      </c>
+      <c r="F262" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F262" t="n">
+      <c r="G262" t="n">
         <v>0.6</v>
       </c>
-      <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -8397,16 +9183,19 @@
           <t>BA067121</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E263" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F263" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F263" t="n">
+      <c r="G263" t="n">
         <v>1.6</v>
       </c>
-      <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -8427,16 +9216,19 @@
           <t>BA067124</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E264" t="n">
+        <v>2244</v>
+      </c>
+      <c r="F264" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F264" t="n">
+      <c r="G264" t="n">
         <v>0.6</v>
       </c>
-      <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -8457,16 +9249,19 @@
           <t>BA066363</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="E265" t="n">
+        <v>4627</v>
+      </c>
+      <c r="F265" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F265" t="n">
+      <c r="G265" t="n">
         <v>1.6</v>
       </c>
-      <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -8487,16 +9282,19 @@
           <t>BA066032A</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="E266" t="n">
+        <v>2916</v>
+      </c>
+      <c r="F266" t="inlineStr">
         <is>
           <t>(Timestamp('2020-02-28 00:00:00'), '2020-02-28')</t>
         </is>
       </c>
-      <c r="F266" t="n">
+      <c r="G266" t="n">
         <v>27</v>
       </c>
-      <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -8517,16 +9315,19 @@
           <t>BA066032</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E267" t="n">
+        <v>2788</v>
+      </c>
+      <c r="F267" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F267" t="n">
+      <c r="G267" t="n">
         <v>2.6</v>
       </c>
-      <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -8547,16 +9348,19 @@
           <t>BA064487</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E268" t="n">
+        <v>42</v>
+      </c>
+      <c r="F268" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F268" t="n">
+      <c r="G268" t="n">
         <v>3.5</v>
       </c>
-      <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -8577,16 +9381,19 @@
           <t>BA065460</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
+      <c r="E269" t="n">
+        <v>2576</v>
+      </c>
+      <c r="F269" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F269" t="n">
+      <c r="G269" t="n">
         <v>3.5</v>
       </c>
-      <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -8607,16 +9414,19 @@
           <t>BA065460A</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E270" t="n">
+        <v>2832</v>
+      </c>
+      <c r="F270" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F270" t="n">
+      <c r="G270" t="n">
         <v>3.5</v>
       </c>
-      <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -8637,16 +9447,19 @@
           <t>BA060505A</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" t="n">
+        <v>2044</v>
+      </c>
+      <c r="F271" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F271" t="n">
+      <c r="G271" t="n">
         <v>8.6</v>
       </c>
-      <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -8667,16 +9480,19 @@
           <t>BA060505</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
+      <c r="E272" t="n">
+        <v>4324</v>
+      </c>
+      <c r="F272" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F272" t="n">
+      <c r="G272" t="n">
         <v>8.6</v>
       </c>
-      <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -8697,16 +9513,19 @@
           <t>BA061135</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" t="n">
+        <v>5233</v>
+      </c>
+      <c r="F273" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F273" t="n">
+      <c r="G273" t="n">
         <v>8.6</v>
       </c>
-      <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -8727,16 +9546,19 @@
           <t>BA058213</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F274" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F274" t="n">
+      <c r="G274" t="n">
         <v>13.7</v>
       </c>
-      <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -8757,16 +9579,19 @@
           <t>BA058793</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" t="n">
+        <v>6010</v>
+      </c>
+      <c r="F275" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F275" t="n">
+      <c r="G275" t="n">
         <v>12.7</v>
       </c>
-      <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -8787,16 +9612,19 @@
           <t>BA056203A</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" t="n">
+        <v>4159</v>
+      </c>
+      <c r="F276" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F276" t="n">
+      <c r="G276" t="n">
         <v>17.8</v>
       </c>
-      <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -8817,16 +9645,19 @@
           <t>BA056203</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
+      <c r="E277" t="n">
+        <v>1292</v>
+      </c>
+      <c r="F277" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F277" t="n">
+      <c r="G277" t="n">
         <v>17.8</v>
       </c>
-      <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -8847,16 +9678,19 @@
           <t>BA055044</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
+      <c r="E278" t="n">
+        <v>3168</v>
+      </c>
+      <c r="F278" t="inlineStr">
         <is>
           <t>(Timestamp('2020-10-31 00:00:00'), '2020-10-31')</t>
         </is>
       </c>
-      <c r="F278" t="n">
+      <c r="G278" t="n">
         <v>18.8</v>
       </c>
-      <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -8877,16 +9711,19 @@
           <t>BA055043</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
+      <c r="E279" t="n">
+        <v>645</v>
+      </c>
+      <c r="F279" t="inlineStr">
         <is>
           <t>(Timestamp('2020-09-30 00:00:00'), '2020-09-30')</t>
         </is>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>19.8</v>
       </c>
-      <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -8907,16 +9744,19 @@
           <t>BA051789B</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
+      <c r="E280" t="n">
+        <v>3060</v>
+      </c>
+      <c r="F280" t="inlineStr">
         <is>
           <t>(Timestamp('2020-04-30 00:00:00'), '2020-04-30')</t>
         </is>
       </c>
-      <c r="F280" t="n">
+      <c r="G280" t="n">
         <v>24.9</v>
       </c>
-      <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -8937,16 +9777,19 @@
           <t>BA053214</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
+      <c r="E281" t="n">
+        <v>10029</v>
+      </c>
+      <c r="F281" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F281" t="n">
+      <c r="G281" t="n">
         <v>20.8</v>
       </c>
-      <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -8967,16 +9810,19 @@
           <t>BA051789C</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr">
+      <c r="E282" t="n">
+        <v>1737</v>
+      </c>
+      <c r="F282" t="inlineStr">
         <is>
           <t>(Timestamp('2020-04-30 00:00:00'), '2020-04-30')</t>
         </is>
       </c>
-      <c r="F282" t="n">
+      <c r="G282" t="n">
         <v>24.9</v>
       </c>
-      <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -8997,16 +9843,19 @@
           <t>BA052292</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
+      <c r="E283" t="n">
+        <v>1558</v>
+      </c>
+      <c r="F283" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F283" t="n">
+      <c r="G283" t="n">
         <v>23.9</v>
       </c>
-      <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9027,20 +9876,23 @@
           <t>BA068951</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
+      <c r="E284" t="n">
+        <v>16</v>
+      </c>
+      <c r="F284" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 6, 30, 0, 0), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F284" t="n">
+      <c r="G284" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G284" t="inlineStr">
+      <c r="H284" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="I284" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9065,16 +9917,19 @@
           <t>BA067671A</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" t="n">
+        <v>135</v>
+      </c>
+      <c r="F285" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F285" t="n">
+      <c r="G285" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9095,16 +9950,19 @@
           <t>BA067246A</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E286" t="n">
+        <v>136</v>
+      </c>
+      <c r="F286" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F286" t="n">
+      <c r="G286" t="n">
         <v>0.6</v>
       </c>
-      <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9125,16 +9983,19 @@
           <t>BA067671</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
+      <c r="E287" t="n">
+        <v>137</v>
+      </c>
+      <c r="F287" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F287" t="n">
+      <c r="G287" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9155,16 +10016,19 @@
           <t>BA067246</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E288" t="n">
+        <v>476</v>
+      </c>
+      <c r="F288" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F288" t="n">
+      <c r="G288" t="n">
         <v>0.6</v>
       </c>
-      <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9185,16 +10049,19 @@
           <t>BA065735A</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr">
+      <c r="E289" t="n">
+        <v>180</v>
+      </c>
+      <c r="F289" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F289" t="n">
+      <c r="G289" t="n">
         <v>3.5</v>
       </c>
-      <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9215,16 +10082,19 @@
           <t>BA065735</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
+      <c r="E290" t="n">
+        <v>170</v>
+      </c>
+      <c r="F290" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F290" t="n">
+      <c r="G290" t="n">
         <v>3.5</v>
       </c>
-      <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9245,16 +10115,19 @@
           <t>BA061673A</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="E291" t="n">
+        <v>285</v>
+      </c>
+      <c r="F291" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F291" t="n">
+      <c r="G291" t="n">
         <v>8.6</v>
       </c>
-      <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -9275,16 +10148,19 @@
           <t>BA061673</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
+      <c r="E292" t="n">
+        <v>700</v>
+      </c>
+      <c r="F292" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F292" t="n">
+      <c r="G292" t="n">
         <v>8.6</v>
       </c>
-      <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -9305,16 +10181,19 @@
           <t>BA059120</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
+      <c r="E293" t="n">
+        <v>476</v>
+      </c>
+      <c r="F293" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F293" t="n">
+      <c r="G293" t="n">
         <v>12.7</v>
       </c>
-      <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -9335,16 +10214,19 @@
           <t>BA057996A</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
+      <c r="E294" t="n">
+        <v>100</v>
+      </c>
+      <c r="F294" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F294" t="n">
+      <c r="G294" t="n">
         <v>15.7</v>
       </c>
-      <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -9365,16 +10247,19 @@
           <t>BA057996</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
+      <c r="E295" t="n">
+        <v>612</v>
+      </c>
+      <c r="F295" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F295" t="n">
+      <c r="G295" t="n">
         <v>15.7</v>
       </c>
-      <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -9395,16 +10280,19 @@
           <t>BA055639</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
+      <c r="E296" t="n">
+        <v>374</v>
+      </c>
+      <c r="F296" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F296" t="n">
+      <c r="G296" t="n">
         <v>17.8</v>
       </c>
-      <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -9425,16 +10313,19 @@
           <t>BA052310D</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
+      <c r="E297" t="n">
+        <v>259</v>
+      </c>
+      <c r="F297" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F297" t="n">
+      <c r="G297" t="n">
         <v>20.8</v>
       </c>
-      <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -9455,16 +10346,19 @@
           <t>BA052310B</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="E298" t="n">
+        <v>259</v>
+      </c>
+      <c r="F298" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F298" t="n">
+      <c r="G298" t="n">
         <v>20.8</v>
       </c>
-      <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -9485,16 +10379,19 @@
           <t>BA052310C</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
+      <c r="E299" t="n">
+        <v>222</v>
+      </c>
+      <c r="F299" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F299" t="n">
+      <c r="G299" t="n">
         <v>20.8</v>
       </c>
-      <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -9515,16 +10412,19 @@
           <t>BA052310A</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
+      <c r="E300" t="n">
+        <v>259</v>
+      </c>
+      <c r="F300" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F300" t="n">
+      <c r="G300" t="n">
         <v>20.8</v>
       </c>
-      <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -9545,16 +10445,19 @@
           <t>BA052310</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
+      <c r="E301" t="n">
+        <v>333</v>
+      </c>
+      <c r="F301" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F301" t="n">
+      <c r="G301" t="n">
         <v>20.8</v>
       </c>
-      <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -9575,20 +10478,23 @@
           <t>BA070133</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
+      <c r="E302" t="n">
+        <v>414</v>
+      </c>
+      <c r="F302" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 9, 30, 0, 0), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F302" t="n">
+      <c r="G302" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G302" t="inlineStr">
+      <c r="H302" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
+      <c r="I302" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9613,20 +10519,23 @@
           <t>BA068473A</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr">
+      <c r="E303" t="n">
+        <v>531</v>
+      </c>
+      <c r="F303" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 7, 31, 0, 0), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F303" t="n">
+      <c r="G303" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G303" t="inlineStr">
+      <c r="H303" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
+      <c r="I303" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9651,20 +10560,23 @@
           <t>BA068473</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
+      <c r="E304" t="n">
+        <v>192</v>
+      </c>
+      <c r="F304" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 7, 31, 0, 0), '2022-07-31')</t>
         </is>
       </c>
-      <c r="F304" t="n">
+      <c r="G304" t="n">
         <v>-2.5</v>
       </c>
-      <c r="G304" t="inlineStr">
+      <c r="H304" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
+      <c r="I304" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9689,20 +10601,23 @@
           <t>BA066979A</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
+      <c r="E305" t="n">
+        <v>321</v>
+      </c>
+      <c r="F305" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 3, 31, 0, 0), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F305" t="n">
+      <c r="G305" t="n">
         <v>1.6</v>
       </c>
-      <c r="G305" t="inlineStr">
+      <c r="H305" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
+      <c r="I305" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9727,20 +10642,23 @@
           <t>BA066979</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
+      <c r="E306" t="n">
+        <v>213</v>
+      </c>
+      <c r="F306" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 3, 31, 0, 0), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F306" t="n">
+      <c r="G306" t="n">
         <v>1.6</v>
       </c>
-      <c r="G306" t="inlineStr">
+      <c r="H306" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
+      <c r="I306" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9765,16 +10683,19 @@
           <t>BA066027</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
+      <c r="E307" t="n">
+        <v>414</v>
+      </c>
+      <c r="F307" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F307" t="n">
+      <c r="G307" t="n">
         <v>1.6</v>
       </c>
-      <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -9795,16 +10716,19 @@
           <t>BA064209</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
+      <c r="E308" t="n">
+        <v>2398</v>
+      </c>
+      <c r="F308" t="inlineStr">
         <is>
           <t>(Timestamp('2021-11-30 00:00:00'), '2021-11-30')</t>
         </is>
       </c>
-      <c r="F308" t="n">
+      <c r="G308" t="n">
         <v>5.6</v>
       </c>
-      <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -9825,16 +10749,19 @@
           <t>BA058644B</t>
         </is>
       </c>
-      <c r="E309" t="inlineStr">
+      <c r="E309" t="n">
+        <v>600</v>
+      </c>
+      <c r="F309" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F309" t="n">
+      <c r="G309" t="n">
         <v>11.7</v>
       </c>
-      <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -9855,16 +10782,19 @@
           <t>BA058644</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr">
+      <c r="E310" t="n">
+        <v>612</v>
+      </c>
+      <c r="F310" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F310" t="n">
+      <c r="G310" t="n">
         <v>11.7</v>
       </c>
-      <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -9885,16 +10815,19 @@
           <t>BA058644A</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr">
+      <c r="E311" t="n">
+        <v>40</v>
+      </c>
+      <c r="F311" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F311" t="n">
+      <c r="G311" t="n">
         <v>11.7</v>
       </c>
-      <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -9915,16 +10848,19 @@
           <t>BA058206</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr">
+      <c r="E312" t="n">
+        <v>2441</v>
+      </c>
+      <c r="F312" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F312" t="n">
+      <c r="G312" t="n">
         <v>12.7</v>
       </c>
-      <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -9945,16 +10881,19 @@
           <t>BA058141A</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
+      <c r="E313" t="n">
+        <v>548</v>
+      </c>
+      <c r="F313" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F313" t="n">
+      <c r="G313" t="n">
         <v>12.7</v>
       </c>
-      <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -9975,16 +10914,19 @@
           <t>BA058141</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
+      <c r="E314" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F314" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F314" t="n">
+      <c r="G314" t="n">
         <v>12.7</v>
       </c>
-      <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10005,16 +10947,19 @@
           <t>BA056296</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
+      <c r="E315" t="n">
+        <v>380</v>
+      </c>
+      <c r="F315" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F315" t="n">
+      <c r="G315" t="n">
         <v>17.8</v>
       </c>
-      <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10035,16 +10980,19 @@
           <t>BA055419</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
+      <c r="E316" t="n">
+        <v>1388</v>
+      </c>
+      <c r="F316" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F316" t="n">
+      <c r="G316" t="n">
         <v>17.8</v>
       </c>
-      <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10065,16 +11013,19 @@
           <t>BA054282</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
+      <c r="E317" t="n">
+        <v>617</v>
+      </c>
+      <c r="F317" t="inlineStr">
         <is>
           <t>(Timestamp('2020-06-30 00:00:00'), '2020-06-30')</t>
         </is>
       </c>
-      <c r="F317" t="n">
+      <c r="G317" t="n">
         <v>22.9</v>
       </c>
-      <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10095,16 +11046,19 @@
           <t>BA054211</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
+      <c r="E318" t="n">
+        <v>303</v>
+      </c>
+      <c r="F318" t="inlineStr">
         <is>
           <t>(Timestamp('2020-06-30 00:00:00'), '2020-06-30')</t>
         </is>
       </c>
-      <c r="F318" t="n">
+      <c r="G318" t="n">
         <v>22.9</v>
       </c>
-      <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10125,20 +11079,23 @@
           <t>BA069514A</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
+      <c r="E319" t="n">
+        <v>613</v>
+      </c>
+      <c r="F319" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 10, 31, 0, 0), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F319" t="n">
+      <c r="G319" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G319" t="inlineStr">
+      <c r="H319" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
+      <c r="I319" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
@@ -10163,20 +11120,23 @@
           <t>BA069514</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr">
+      <c r="E320" t="n">
+        <v>936</v>
+      </c>
+      <c r="F320" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 10, 31, 0, 0), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F320" t="n">
+      <c r="G320" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G320" t="inlineStr">
+      <c r="H320" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
+      <c r="I320" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -10201,16 +11161,19 @@
           <t>BA068017</t>
         </is>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" t="n">
+        <v>807</v>
+      </c>
+      <c r="F321" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F321" t="n">
+      <c r="G321" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -10231,16 +11194,19 @@
           <t>BA067521</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr">
+      <c r="E322" t="n">
+        <v>253</v>
+      </c>
+      <c r="F322" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F322" t="n">
+      <c r="G322" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -10261,16 +11227,19 @@
           <t>BA067521A</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr">
+      <c r="E323" t="n">
+        <v>202</v>
+      </c>
+      <c r="F323" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F323" t="n">
+      <c r="G323" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -10291,16 +11260,19 @@
           <t>BA066051</t>
         </is>
       </c>
-      <c r="E324" t="inlineStr">
+      <c r="E324" t="n">
+        <v>756</v>
+      </c>
+      <c r="F324" t="inlineStr">
         <is>
           <t>(Timestamp('2022-05-31 00:00:00'), '2022-05-31')</t>
         </is>
       </c>
-      <c r="F324" t="n">
+      <c r="G324" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -10321,16 +11293,19 @@
           <t>BA064843</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr">
+      <c r="E325" t="n">
+        <v>691</v>
+      </c>
+      <c r="F325" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F325" t="n">
+      <c r="G325" t="n">
         <v>1.6</v>
       </c>
-      <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -10351,16 +11326,19 @@
           <t>BA064520</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr">
+      <c r="E326" t="n">
+        <v>504</v>
+      </c>
+      <c r="F326" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F326" t="n">
+      <c r="G326" t="n">
         <v>2.6</v>
       </c>
-      <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -10381,16 +11359,19 @@
           <t>BA063341A</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr">
+      <c r="E327" t="n">
+        <v>448</v>
+      </c>
+      <c r="F327" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F327" t="n">
+      <c r="G327" t="n">
         <v>3.5</v>
       </c>
-      <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -10411,16 +11392,19 @@
           <t>BA063341</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" t="n">
+        <v>504</v>
+      </c>
+      <c r="F328" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F328" t="n">
+      <c r="G328" t="n">
         <v>3.5</v>
       </c>
-      <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -10441,16 +11425,19 @@
           <t>BA061198</t>
         </is>
       </c>
-      <c r="E329" t="inlineStr">
+      <c r="E329" t="n">
+        <v>504</v>
+      </c>
+      <c r="F329" t="inlineStr">
         <is>
           <t>(Timestamp('2021-10-31 00:00:00'), '2021-10-31')</t>
         </is>
       </c>
-      <c r="F329" t="n">
+      <c r="G329" t="n">
         <v>6.6</v>
       </c>
-      <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -10471,16 +11458,19 @@
           <t>BA060301</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr">
+      <c r="E330" t="n">
+        <v>252</v>
+      </c>
+      <c r="F330" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F330" t="n">
+      <c r="G330" t="n">
         <v>8.6</v>
       </c>
-      <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -10501,16 +11491,19 @@
           <t>BA060919</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr">
+      <c r="E331" t="n">
+        <v>504</v>
+      </c>
+      <c r="F331" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F331" t="n">
+      <c r="G331" t="n">
         <v>7.6</v>
       </c>
-      <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -10531,16 +11524,19 @@
           <t>BA056533</t>
         </is>
       </c>
-      <c r="E332" t="inlineStr">
+      <c r="E332" t="n">
+        <v>756</v>
+      </c>
+      <c r="F332" t="inlineStr">
         <is>
           <t>(Timestamp('2021-02-28 00:00:00'), '2021-02-28')</t>
         </is>
       </c>
-      <c r="F332" t="n">
+      <c r="G332" t="n">
         <v>14.8</v>
       </c>
-      <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -10561,16 +11557,19 @@
           <t>BA056018</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" t="n">
+        <v>2802</v>
+      </c>
+      <c r="F333" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F333" t="n">
+      <c r="G333" t="n">
         <v>17.8</v>
       </c>
-      <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -10591,16 +11590,19 @@
           <t>BA055223</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr">
+      <c r="E334" t="n">
+        <v>2278</v>
+      </c>
+      <c r="F334" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F334" t="n">
+      <c r="G334" t="n">
         <v>17.8</v>
       </c>
-      <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -10621,16 +11623,19 @@
           <t>BA054470A</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr">
+      <c r="E335" t="n">
+        <v>940</v>
+      </c>
+      <c r="F335" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F335" t="n">
+      <c r="G335" t="n">
         <v>17.8</v>
       </c>
-      <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -10651,16 +11656,19 @@
           <t>BA054470</t>
         </is>
       </c>
-      <c r="E336" t="inlineStr">
+      <c r="E336" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F336" t="inlineStr">
         <is>
           <t>(Timestamp('2020-11-30 00:00:00'), '2020-11-30')</t>
         </is>
       </c>
-      <c r="F336" t="n">
+      <c r="G336" t="n">
         <v>17.8</v>
       </c>
-      <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -10681,16 +11689,19 @@
           <t>BA053612A</t>
         </is>
       </c>
-      <c r="E337" t="inlineStr">
+      <c r="E337" t="n">
+        <v>1277</v>
+      </c>
+      <c r="F337" t="inlineStr">
         <is>
           <t>(Timestamp('2020-09-30 00:00:00'), '2020-09-30')</t>
         </is>
       </c>
-      <c r="F337" t="n">
+      <c r="G337" t="n">
         <v>19.8</v>
       </c>
-      <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -10711,16 +11722,19 @@
           <t>BA053612</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr">
+      <c r="E338" t="n">
+        <v>999</v>
+      </c>
+      <c r="F338" t="inlineStr">
         <is>
           <t>(Timestamp('2020-09-30 00:00:00'), '2020-09-30')</t>
         </is>
       </c>
-      <c r="F338" t="n">
+      <c r="G338" t="n">
         <v>19.8</v>
       </c>
-      <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -10741,20 +11755,23 @@
           <t>AU030430</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="E339" t="n">
+        <v>3077</v>
+      </c>
+      <c r="F339" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 2, 28, 0, 0), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F339" t="n">
+      <c r="G339" t="n">
         <v>2.6</v>
       </c>
-      <c r="G339" t="inlineStr">
+      <c r="H339" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
+      <c r="I339" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -10779,16 +11796,19 @@
           <t>AU031287</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr">
+      <c r="E340" t="n">
+        <v>5077</v>
+      </c>
+      <c r="F340" t="inlineStr">
         <is>
           <t>(Timestamp('2022-10-31 00:00:00'), '2022-10-31')</t>
         </is>
       </c>
-      <c r="F340" t="n">
+      <c r="G340" t="n">
         <v>-5.6</v>
       </c>
-      <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -10809,16 +11829,19 @@
           <t>AU030029A</t>
         </is>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F341" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F341" t="n">
+      <c r="G341" t="n">
         <v>2.6</v>
       </c>
-      <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -10839,16 +11862,19 @@
           <t>AU030029</t>
         </is>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" t="n">
+        <v>2385</v>
+      </c>
+      <c r="F342" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F342" t="n">
+      <c r="G342" t="n">
         <v>2.6</v>
       </c>
-      <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -10869,16 +11895,19 @@
           <t>AU028240A</t>
         </is>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" t="n">
+        <v>5999</v>
+      </c>
+      <c r="F343" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F343" t="n">
+      <c r="G343" t="n">
         <v>7.6</v>
       </c>
-      <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -10899,16 +11928,19 @@
           <t>AU027912B</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr">
+      <c r="E344" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F344" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F344" t="n">
+      <c r="G344" t="n">
         <v>8.6</v>
       </c>
-      <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -10929,16 +11961,19 @@
           <t>AU027912</t>
         </is>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F345" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F345" t="n">
+      <c r="G345" t="n">
         <v>8.6</v>
       </c>
-      <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -10959,16 +11994,19 @@
           <t>AU027912A</t>
         </is>
       </c>
-      <c r="E346" t="inlineStr">
+      <c r="E346" t="n">
+        <v>3980</v>
+      </c>
+      <c r="F346" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F346" t="n">
+      <c r="G346" t="n">
         <v>8.6</v>
       </c>
-      <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -10989,16 +12027,19 @@
           <t>AU027913</t>
         </is>
       </c>
-      <c r="E347" t="inlineStr">
+      <c r="E347" t="n">
+        <v>1341</v>
+      </c>
+      <c r="F347" t="inlineStr">
         <is>
           <t>(Timestamp('2022-08-31 00:00:00'), '2022-08-31')</t>
         </is>
       </c>
-      <c r="F347" t="n">
+      <c r="G347" t="n">
         <v>-3.5</v>
       </c>
-      <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11019,16 +12060,19 @@
           <t>AU027315</t>
         </is>
       </c>
-      <c r="E348" t="inlineStr">
+      <c r="E348" t="n">
+        <v>4751</v>
+      </c>
+      <c r="F348" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F348" t="n">
+      <c r="G348" t="n">
         <v>12.7</v>
       </c>
-      <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -11049,16 +12093,19 @@
           <t>AU027193B</t>
         </is>
       </c>
-      <c r="E349" t="inlineStr">
+      <c r="E349" t="n">
+        <v>989</v>
+      </c>
+      <c r="F349" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F349" t="n">
+      <c r="G349" t="n">
         <v>12.7</v>
       </c>
-      <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -11079,16 +12126,19 @@
           <t>AU027193C</t>
         </is>
       </c>
-      <c r="E350" t="inlineStr">
+      <c r="E350" t="n">
+        <v>474</v>
+      </c>
+      <c r="F350" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F350" t="n">
+      <c r="G350" t="n">
         <v>12.7</v>
       </c>
-      <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -11109,16 +12159,19 @@
           <t>AU027193</t>
         </is>
       </c>
-      <c r="E351" t="inlineStr">
+      <c r="E351" t="n">
+        <v>2680</v>
+      </c>
+      <c r="F351" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F351" t="n">
+      <c r="G351" t="n">
         <v>12.7</v>
       </c>
-      <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -11139,16 +12192,19 @@
           <t>AU027193A</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr">
+      <c r="E352" t="n">
+        <v>2649</v>
+      </c>
+      <c r="F352" t="inlineStr">
         <is>
           <t>(Timestamp('2021-04-30 00:00:00'), '2021-04-30')</t>
         </is>
       </c>
-      <c r="F352" t="n">
+      <c r="G352" t="n">
         <v>12.7</v>
       </c>
-      <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -11169,16 +12225,19 @@
           <t>AU024971</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr">
+      <c r="E353" t="n">
+        <v>26000</v>
+      </c>
+      <c r="F353" t="inlineStr">
         <is>
           <t>(Timestamp('2020-07-31 00:00:00'), '2020-07-31')</t>
         </is>
       </c>
-      <c r="F353" t="n">
+      <c r="G353" t="n">
         <v>21.8</v>
       </c>
-      <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -11199,16 +12258,19 @@
           <t>AU024451B</t>
         </is>
       </c>
-      <c r="E354" t="inlineStr">
+      <c r="E354" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F354" t="inlineStr">
         <is>
           <t>(Timestamp('2020-06-30 00:00:00'), '2020-06-30')</t>
         </is>
       </c>
-      <c r="F354" t="n">
+      <c r="G354" t="n">
         <v>22.9</v>
       </c>
-      <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -11229,16 +12291,19 @@
           <t>AU026640</t>
         </is>
       </c>
-      <c r="E355" t="inlineStr">
+      <c r="E355" t="n">
+        <v>399</v>
+      </c>
+      <c r="F355" t="inlineStr">
         <is>
           <t>(Timestamp('2022-03-31 00:00:00'), '2022-03-31')</t>
         </is>
       </c>
-      <c r="F355" t="n">
+      <c r="G355" t="n">
         <v>1.6</v>
       </c>
-      <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -11259,16 +12324,19 @@
           <t>AU023374</t>
         </is>
       </c>
-      <c r="E356" t="inlineStr">
+      <c r="E356" t="n">
+        <v>1587</v>
+      </c>
+      <c r="F356" t="inlineStr">
         <is>
           <t>(Timestamp('2020-09-30 00:00:00'), '2020-09-30')</t>
         </is>
       </c>
-      <c r="F356" t="n">
+      <c r="G356" t="n">
         <v>19.8</v>
       </c>
-      <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -11289,16 +12357,19 @@
           <t>AU029060-A</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr">
+      <c r="E357" t="n">
+        <v>1345</v>
+      </c>
+      <c r="F357" t="inlineStr">
         <is>
           <t>(Timestamp('2022-08-31 00:00:00'), '2022-08-31')</t>
         </is>
       </c>
-      <c r="F357" t="n">
+      <c r="G357" t="n">
         <v>-3.5</v>
       </c>
-      <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -11319,16 +12390,19 @@
           <t>AU029060</t>
         </is>
       </c>
-      <c r="E358" t="inlineStr">
+      <c r="E358" t="n">
+        <v>460</v>
+      </c>
+      <c r="F358" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F358" t="n">
+      <c r="G358" t="n">
         <v>8.6</v>
       </c>
-      <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -11349,16 +12423,19 @@
           <t>AU029699</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr">
+      <c r="E359" t="n">
+        <v>1256</v>
+      </c>
+      <c r="F359" t="inlineStr">
         <is>
           <t>(Timestamp('2021-12-31 00:00:00'), '2021-12-31')</t>
         </is>
       </c>
-      <c r="F359" t="n">
+      <c r="G359" t="n">
         <v>4.6</v>
       </c>
-      <c r="G359" t="inlineStr"/>
       <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -11379,16 +12456,19 @@
           <t>AU028338</t>
         </is>
       </c>
-      <c r="E360" t="inlineStr">
+      <c r="E360" t="n">
+        <v>1579</v>
+      </c>
+      <c r="F360" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F360" t="n">
+      <c r="G360" t="n">
         <v>8.6</v>
       </c>
-      <c r="G360" t="inlineStr"/>
       <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -11409,16 +12489,19 @@
           <t>AU028205</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr">
+      <c r="E361" t="n">
+        <v>1263</v>
+      </c>
+      <c r="F361" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F361" t="n">
+      <c r="G361" t="n">
         <v>8.6</v>
       </c>
-      <c r="G361" t="inlineStr"/>
       <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -11439,16 +12522,19 @@
           <t>AU027075B</t>
         </is>
       </c>
-      <c r="E362" t="inlineStr">
+      <c r="E362" t="n">
+        <v>464</v>
+      </c>
+      <c r="F362" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F362" t="n">
+      <c r="G362" t="n">
         <v>13.7</v>
       </c>
-      <c r="G362" t="inlineStr"/>
       <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -11469,16 +12555,19 @@
           <t>AU027075</t>
         </is>
       </c>
-      <c r="E363" t="inlineStr">
+      <c r="E363" t="n">
+        <v>334</v>
+      </c>
+      <c r="F363" t="inlineStr">
         <is>
           <t>(Timestamp('2021-03-31 00:00:00'), '2021-03-31')</t>
         </is>
       </c>
-      <c r="F363" t="n">
+      <c r="G363" t="n">
         <v>13.7</v>
       </c>
-      <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -11499,16 +12588,19 @@
           <t>AU026853</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr">
+      <c r="E364" t="n">
+        <v>367</v>
+      </c>
+      <c r="F364" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F364" t="n">
+      <c r="G364" t="n">
         <v>15.7</v>
       </c>
-      <c r="G364" t="inlineStr"/>
       <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -11529,16 +12621,19 @@
           <t>AU026370A</t>
         </is>
       </c>
-      <c r="E365" t="inlineStr">
+      <c r="E365" t="n">
+        <v>273</v>
+      </c>
+      <c r="F365" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F365" t="n">
+      <c r="G365" t="n">
         <v>15.7</v>
       </c>
-      <c r="G365" t="inlineStr"/>
       <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -11559,16 +12654,19 @@
           <t>AU026370</t>
         </is>
       </c>
-      <c r="E366" t="inlineStr">
+      <c r="E366" t="n">
+        <v>256</v>
+      </c>
+      <c r="F366" t="inlineStr">
         <is>
           <t>(Timestamp('2021-01-31 00:00:00'), '2021-01-31')</t>
         </is>
       </c>
-      <c r="F366" t="n">
+      <c r="G366" t="n">
         <v>15.7</v>
       </c>
-      <c r="G366" t="inlineStr"/>
       <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -11589,16 +12687,19 @@
           <t>AU025921</t>
         </is>
       </c>
-      <c r="E367" t="inlineStr">
+      <c r="E367" t="n">
+        <v>489</v>
+      </c>
+      <c r="F367" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F367" t="n">
+      <c r="G367" t="n">
         <v>20.8</v>
       </c>
-      <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -11619,16 +12720,19 @@
           <t>AU025077B</t>
         </is>
       </c>
-      <c r="E368" t="inlineStr">
+      <c r="E368" t="n">
+        <v>464</v>
+      </c>
+      <c r="F368" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F368" t="n">
+      <c r="G368" t="n">
         <v>20.8</v>
       </c>
-      <c r="G368" t="inlineStr"/>
       <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -11649,16 +12753,19 @@
           <t>AU025077A</t>
         </is>
       </c>
-      <c r="E369" t="inlineStr">
+      <c r="E369" t="n">
+        <v>288</v>
+      </c>
+      <c r="F369" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F369" t="n">
+      <c r="G369" t="n">
         <v>20.8</v>
       </c>
-      <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -11679,16 +12786,19 @@
           <t>AU025077</t>
         </is>
       </c>
-      <c r="E370" t="inlineStr">
+      <c r="E370" t="n">
+        <v>560</v>
+      </c>
+      <c r="F370" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F370" t="n">
+      <c r="G370" t="n">
         <v>20.8</v>
       </c>
-      <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -11709,20 +12819,23 @@
           <t>AU031827A</t>
         </is>
       </c>
-      <c r="E371" t="inlineStr">
+      <c r="E371" t="n">
+        <v>33</v>
+      </c>
+      <c r="F371" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 9, 30, 0, 0), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F371" t="n">
+      <c r="G371" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G371" t="inlineStr">
+      <c r="H371" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
+      <c r="I371" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -11747,20 +12860,23 @@
           <t>AU031827</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr">
+      <c r="E372" t="n">
+        <v>49</v>
+      </c>
+      <c r="F372" t="inlineStr">
         <is>
           <t>(datetime.datetime(2022, 9, 30, 0, 0), '2022-09-30')</t>
         </is>
       </c>
-      <c r="F372" t="n">
+      <c r="G372" t="n">
         <v>-4.5</v>
       </c>
-      <c r="G372" t="inlineStr">
+      <c r="H372" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
+      <c r="I372" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -11785,16 +12901,19 @@
           <t>AU031086</t>
         </is>
       </c>
-      <c r="E373" t="inlineStr">
+      <c r="E373" t="n">
+        <v>16</v>
+      </c>
+      <c r="F373" t="inlineStr">
         <is>
           <t>(Timestamp('2022-08-31 00:00:00'), '2022-08-31')</t>
         </is>
       </c>
-      <c r="F373" t="n">
+      <c r="G373" t="n">
         <v>-3.5</v>
       </c>
-      <c r="G373" t="inlineStr"/>
       <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -11815,16 +12934,19 @@
           <t>AU030970</t>
         </is>
       </c>
-      <c r="E374" t="inlineStr">
+      <c r="E374" t="n">
+        <v>17</v>
+      </c>
+      <c r="F374" t="inlineStr">
         <is>
           <t>(Timestamp('2022-06-30 00:00:00'), '2022-06-30')</t>
         </is>
       </c>
-      <c r="F374" t="n">
+      <c r="G374" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G374" t="inlineStr"/>
       <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -11845,16 +12967,19 @@
           <t>AU030570</t>
         </is>
       </c>
-      <c r="E375" t="inlineStr">
+      <c r="E375" t="n">
+        <v>13</v>
+      </c>
+      <c r="F375" t="inlineStr">
         <is>
           <t>(Timestamp('2022-04-30 00:00:00'), '2022-04-30')</t>
         </is>
       </c>
-      <c r="F375" t="n">
+      <c r="G375" t="n">
         <v>0.6</v>
       </c>
-      <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -11875,16 +13000,19 @@
           <t>AU029531A</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr">
+      <c r="E376" t="n">
+        <v>10</v>
+      </c>
+      <c r="F376" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F376" t="n">
+      <c r="G376" t="n">
         <v>3.5</v>
       </c>
-      <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -11905,16 +13033,19 @@
           <t>AU029531</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr">
+      <c r="E377" t="n">
+        <v>11</v>
+      </c>
+      <c r="F377" t="inlineStr">
         <is>
           <t>(Timestamp('2022-01-31 00:00:00'), '2022-01-31')</t>
         </is>
       </c>
-      <c r="F377" t="n">
+      <c r="G377" t="n">
         <v>3.5</v>
       </c>
-      <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -11935,16 +13066,19 @@
           <t>AU028206</t>
         </is>
       </c>
-      <c r="E378" t="inlineStr">
+      <c r="E378" t="n">
+        <v>21</v>
+      </c>
+      <c r="F378" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F378" t="n">
+      <c r="G378" t="n">
         <v>8.6</v>
       </c>
-      <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -11965,16 +13099,19 @@
           <t>AU027828</t>
         </is>
       </c>
-      <c r="E379" t="inlineStr">
+      <c r="E379" t="n">
+        <v>20</v>
+      </c>
+      <c r="F379" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F379" t="n">
+      <c r="G379" t="n">
         <v>11.7</v>
       </c>
-      <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -11995,16 +13132,19 @@
           <t>AU027482</t>
         </is>
       </c>
-      <c r="E380" t="inlineStr">
+      <c r="E380" t="n">
+        <v>5</v>
+      </c>
+      <c r="F380" t="inlineStr">
         <is>
           <t>(Timestamp('2021-05-31 00:00:00'), '2021-05-31')</t>
         </is>
       </c>
-      <c r="F380" t="n">
+      <c r="G380" t="n">
         <v>11.7</v>
       </c>
-      <c r="G380" t="inlineStr"/>
       <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -12025,16 +13165,19 @@
           <t>BA051407</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr">
+      <c r="E381" t="n">
+        <v>9</v>
+      </c>
+      <c r="F381" t="inlineStr">
         <is>
           <t>(Timestamp('2020-05-31 00:00:00'), '2020-05-31')</t>
         </is>
       </c>
-      <c r="F381" t="n">
+      <c r="G381" t="n">
         <v>23.9</v>
       </c>
-      <c r="G381" t="inlineStr"/>
       <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -12055,16 +13198,19 @@
           <t>BA052786</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr">
+      <c r="E382" t="n">
+        <v>29</v>
+      </c>
+      <c r="F382" t="inlineStr">
         <is>
           <t>(Timestamp('2020-08-31 00:00:00'), '2020-08-31')</t>
         </is>
       </c>
-      <c r="F382" t="n">
+      <c r="G382" t="n">
         <v>20.8</v>
       </c>
-      <c r="G382" t="inlineStr"/>
       <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -12085,16 +13231,19 @@
           <t>AU026508</t>
         </is>
       </c>
-      <c r="E383" t="inlineStr">
+      <c r="E383" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F383" t="inlineStr">
         <is>
           <t>(Timestamp('2022-02-28 00:00:00'), '2022-02-28')</t>
         </is>
       </c>
-      <c r="F383" t="n">
+      <c r="G383" t="n">
         <v>2.6</v>
       </c>
-      <c r="G383" t="inlineStr"/>
       <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -12115,16 +13264,19 @@
           <t>AU026075</t>
         </is>
       </c>
-      <c r="E384" t="inlineStr">
+      <c r="E384" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F384" t="inlineStr">
         <is>
           <t>(Timestamp('2021-09-30 00:00:00'), '2021-09-30')</t>
         </is>
       </c>
-      <c r="F384" t="n">
+      <c r="G384" t="n">
         <v>7.6</v>
       </c>
-      <c r="G384" t="inlineStr"/>
       <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -12145,16 +13297,19 @@
           <t>AU025285</t>
         </is>
       </c>
-      <c r="E385" t="inlineStr">
+      <c r="E385" t="n">
+        <v>3169</v>
+      </c>
+      <c r="F385" t="inlineStr">
         <is>
           <t>(Timestamp('2021-08-31 00:00:00'), '2021-08-31')</t>
         </is>
       </c>
-      <c r="F385" t="n">
+      <c r="G385" t="n">
         <v>8.6</v>
       </c>
-      <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
